--- a/src/main/resources/template/orderList.xlsx
+++ b/src/main/resources/template/orderList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="15260"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>金额(元)</t>
   </si>
   <si>
-    <t>{{$fe:list t  t.id</t>
+    <t>{{$fe:list t.id</t>
   </si>
   <si>
     <t>t.material</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">t.count </t>
   </si>
   <si>
-    <t>t.price}}</t>
+    <t>t.price }}</t>
   </si>
   <si>
     <t>合计：</t>
@@ -135,11 +135,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -177,12 +177,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -190,23 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,107 +294,33 @@
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -347,61 +347,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,128 +531,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -559,6 +559,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -599,10 +612,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,17 +626,21 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,11 +662,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +711,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,181 +751,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyBorder="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyFont="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="16">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="17">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyFont="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -886,35 +912,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -931,19 +966,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -951,64 +973,79 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1308,18 +1345,18 @@
   <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84615384615385" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84545454545455" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.71153846153846" customWidth="1"/>
-    <col min="2" max="2" width="18.5769230769231" customWidth="1"/>
-    <col min="3" max="4" width="11.4230769230769" customWidth="1"/>
+    <col min="1" max="1" width="5.70909090909091" customWidth="1"/>
+    <col min="2" max="2" width="18.5727272727273" customWidth="1"/>
+    <col min="3" max="4" width="11.4272727272727" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="9" width="8.57692307692308" customWidth="1"/>
-    <col min="10" max="10" width="11.4230769230769" customWidth="1"/>
+    <col min="7" max="9" width="8.57272727272727" customWidth="1"/>
+    <col min="10" max="10" width="11.4272727272727" customWidth="1"/>
     <col min="11" max="11" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1331,268 +1368,268 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="49.5" customHeight="1" spans="1:11">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="49.5" customHeight="1" spans="1:11">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="21" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" ht="49.5" customHeight="1" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="22"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/src/main/resources/template/orderList.xlsx
+++ b/src/main/resources/template/orderList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowHeight="18520"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>报价单</t>
   </si>
@@ -58,6 +58,9 @@
     <t>参数</t>
   </si>
   <si>
+    <t>商品链接</t>
+  </si>
+  <si>
     <t>参考图片</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>t.param</t>
   </si>
   <si>
+    <t>t.link</t>
+  </si>
+  <si>
     <t>t.img</t>
   </si>
   <si>
@@ -100,7 +106,7 @@
     <t xml:space="preserve">t.count </t>
   </si>
   <si>
-    <t>t.price }}</t>
+    <t>t.price}}</t>
   </si>
   <si>
     <t>合计：</t>
@@ -136,8 +142,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
@@ -176,8 +182,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,31 +205,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,20 +217,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -247,6 +225,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -262,6 +256,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -270,17 +279,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,14 +309,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -310,9 +317,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -347,49 +353,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,133 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,24 +669,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.5"/>
       </bottom>
@@ -698,6 +686,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +725,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,152 +762,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyFont="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="11" applyFont="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="16">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="17">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyFill="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyFill="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyBorder="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="17">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyFill="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -910,6 +916,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,6 +949,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -948,10 +960,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -976,11 +984,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1343,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84545454545455" defaultRowHeight="15" customHeight="1"/>
@@ -1354,13 +1374,13 @@
     <col min="1" max="1" width="5.70909090909091" customWidth="1"/>
     <col min="2" max="2" width="18.5727272727273" customWidth="1"/>
     <col min="3" max="4" width="11.4272727272727" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="9" width="8.57272727272727" customWidth="1"/>
-    <col min="10" max="10" width="11.4272727272727" customWidth="1"/>
-    <col min="11" max="11" width="45.5" customWidth="1"/>
+    <col min="5" max="7" width="20" customWidth="1"/>
+    <col min="8" max="10" width="8.57272727272727" customWidth="1"/>
+    <col min="11" max="11" width="11.4272727272727" customWidth="1"/>
+    <col min="12" max="12" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.75" customHeight="1" spans="1:11">
+    <row r="1" ht="51.75" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,215 +1389,228 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="9" t="s">
+    <row r="4" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="21"/>
     </row>
-    <row r="5" ht="49.5" customHeight="1" spans="1:11">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="J5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="24"/>
     </row>
-    <row r="6" ht="49.5" customHeight="1" spans="1:11">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="24" t="s">
+    <row r="6" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="28"/>
     </row>
-    <row r="7" ht="49.5" customHeight="1" spans="1:11">
-      <c r="A7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+    <row r="8" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+    <row r="9" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+    <row r="10" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+    <row r="11" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="14" t="s">
-        <v>36</v>
+    <row r="12" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A12" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1589,24 +1622,28 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+    <row r="13" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
-    <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="16"/>
+    <row r="14" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1617,44 +1654,70 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
-    <row r="15" customHeight="1" spans="1:11">
+    <row r="15" customHeight="1" spans="1:12">
       <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="25"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="32">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" pageOrder="overThenDown" orientation="portrait"/>

--- a/src/main/resources/template/orderList.xlsx
+++ b/src/main/resources/template/orderList.xlsx
@@ -119,6 +119,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">                                                                      </t>
     </r>
     <r>
@@ -177,8 +184,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -204,8 +211,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +227,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,79 +340,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,36 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -364,13 +371,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +527,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,157 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,74 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -707,6 +646,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,146 +734,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,9 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1222,7 +1223,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1242,341 +1243,341 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="56.65" customHeight="1" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
